--- a/SPPSApi/Doc/Template/FS0610_Download.xlsx
+++ b/SPPSApi/Doc/Template/FS0610_Download.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -24,10 +24,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>订货频度</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>CFC</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -159,13 +155,17 @@
   </si>
   <si>
     <t>N+2 PCS</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>订货方式</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.0000_ "/>
   </numFmts>
@@ -270,20 +270,48 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -344,7 +372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,7 +407,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,19 +618,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR697"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="12.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="5.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="9" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="9" customWidth="1"/>
-    <col min="8" max="38" width="3.875" style="9" customWidth="1"/>
-    <col min="39" max="44" width="8.25" style="10" customWidth="1"/>
+    <col min="1" max="3" width="12.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="13" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="13" customWidth="1"/>
+    <col min="8" max="38" width="3.875" style="13" customWidth="1"/>
+    <col min="39" max="44" width="8.25" style="14" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -614,177 +640,177 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="697" spans="1:44" ht="12.75">
-      <c r="A697" s="11"/>
-      <c r="B697" s="11"/>
-      <c r="C697" s="11"/>
-      <c r="D697" s="11"/>
-      <c r="E697" s="12"/>
-      <c r="F697" s="13"/>
-      <c r="G697" s="13"/>
-      <c r="H697" s="13"/>
-      <c r="I697" s="13"/>
-      <c r="J697" s="13"/>
-      <c r="K697" s="13"/>
-      <c r="L697" s="13"/>
-      <c r="M697" s="13"/>
-      <c r="N697" s="13"/>
-      <c r="O697" s="13"/>
-      <c r="P697" s="13"/>
-      <c r="Q697" s="13"/>
-      <c r="R697" s="13"/>
-      <c r="S697" s="13"/>
-      <c r="T697" s="13"/>
-      <c r="U697" s="13"/>
-      <c r="V697" s="13"/>
-      <c r="W697" s="13"/>
-      <c r="X697" s="13"/>
-      <c r="Y697" s="13"/>
-      <c r="Z697" s="13"/>
-      <c r="AA697" s="13"/>
-      <c r="AB697" s="13"/>
-      <c r="AC697" s="13"/>
-      <c r="AD697" s="13"/>
-      <c r="AE697" s="13"/>
-      <c r="AF697" s="13"/>
-      <c r="AG697" s="13"/>
-      <c r="AH697" s="13"/>
-      <c r="AI697" s="13"/>
-      <c r="AJ697" s="13"/>
-      <c r="AK697" s="13"/>
-      <c r="AL697" s="13"/>
-      <c r="AM697" s="14"/>
-      <c r="AN697" s="14"/>
-      <c r="AO697" s="14"/>
-      <c r="AP697" s="14"/>
-      <c r="AQ697" s="14"/>
-      <c r="AR697" s="14"/>
+      <c r="A697" s="7"/>
+      <c r="B697" s="7"/>
+      <c r="C697" s="7"/>
+      <c r="D697" s="7"/>
+      <c r="E697" s="8"/>
+      <c r="F697" s="9"/>
+      <c r="G697" s="9"/>
+      <c r="H697" s="9"/>
+      <c r="I697" s="9"/>
+      <c r="J697" s="9"/>
+      <c r="K697" s="9"/>
+      <c r="L697" s="9"/>
+      <c r="M697" s="9"/>
+      <c r="N697" s="9"/>
+      <c r="O697" s="9"/>
+      <c r="P697" s="9"/>
+      <c r="Q697" s="9"/>
+      <c r="R697" s="9"/>
+      <c r="S697" s="9"/>
+      <c r="T697" s="9"/>
+      <c r="U697" s="9"/>
+      <c r="V697" s="9"/>
+      <c r="W697" s="9"/>
+      <c r="X697" s="9"/>
+      <c r="Y697" s="9"/>
+      <c r="Z697" s="9"/>
+      <c r="AA697" s="9"/>
+      <c r="AB697" s="9"/>
+      <c r="AC697" s="9"/>
+      <c r="AD697" s="9"/>
+      <c r="AE697" s="9"/>
+      <c r="AF697" s="9"/>
+      <c r="AG697" s="9"/>
+      <c r="AH697" s="9"/>
+      <c r="AI697" s="9"/>
+      <c r="AJ697" s="9"/>
+      <c r="AK697" s="9"/>
+      <c r="AL697" s="9"/>
+      <c r="AM697" s="10"/>
+      <c r="AN697" s="10"/>
+      <c r="AO697" s="10"/>
+      <c r="AP697" s="10"/>
+      <c r="AQ697" s="10"/>
+      <c r="AR697" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
